--- a/VerveStacks_BRA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_BRA/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E78125B0-0CFC-4F04-8770-8E6661057D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14FAF98F-2FEE-4676-8E5F-06DE293C4703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -339,13 +339,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH3,S1aH4,S2aH2,S4aH6,S3aH3,S5aH4,S6aH3,S6aH4,S2aH6,S3aH5,S5aH3,S1aH6,S3aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S4aH2,S4aH5,S3aH4,S4aH3,S4aH4,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S6aH5</t>
+    <t>S3aH3,S3aH4,S4aH3,S4aH4,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S5aH4,S6aH3,S6aH4,S4aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S4aH5,S1aH6,S1aH4,S2aH2,S4aH6,S1aH3,S3aH2,S2aH6,S3aH5,S5aH3,S6aH5</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1aH7,S4aH7,S5aH7,S4aH1,S6aH1,S2aH8,S1aH8,S5aH1,S6aH7,S6aH8,S3aH8,S3aH1,S1aH1,S2aH7,S2aH1,S3aH7,S5aH8,S4aH8</t>
+    <t>S2aH1,S3aH7,S5aH8,S6aH8,S4aH1,S6aH1,S3aH1,S1aH7,S4aH7,S5aH7,S3aH8,S1aH8,S5aH1,S6aH7,S2aH8,S1aH1,S2aH7,S4aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -948,7 +948,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S1aH7,S4aH7,S5aH7,S4aH1,S6aH1,S2aH8,S1aH8,S5aH1,S6aH7,S6aH8,S3aH8,S3aH1,S1aH1,S2aH7,S2aH1,S3aH7,S5aH8,S4aH8</v>
+        <v>S2aH1,S3aH7,S5aH8,S6aH8,S4aH1,S6aH1,S3aH1,S1aH7,S4aH7,S5aH7,S3aH8,S1aH8,S5aH1,S6aH7,S2aH8,S1aH1,S2aH7,S4aH8</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -980,7 +980,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH3,S1aH4,S2aH2,S4aH6,S3aH3,S5aH4,S6aH3,S6aH4,S2aH6,S3aH5,S5aH3,S1aH6,S3aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S4aH2,S4aH5,S3aH4,S4aH3,S4aH4,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S6aH5</v>
+        <v>S3aH3,S3aH4,S4aH3,S4aH4,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S5aH4,S6aH3,S6aH4,S4aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S4aH5,S1aH6,S1aH4,S2aH2,S4aH6,S1aH3,S3aH2,S2aH6,S3aH5,S5aH3,S6aH5</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7658A3-5ED6-49B5-8171-5E372B75A5E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682C148B-A596-4484-8632-0E4CE0DCAE55}">
   <dimension ref="A9:AM106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1219,10 +1219,10 @@
         <v>0.19756037558773065</v>
       </c>
       <c r="AK11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AL11">
-        <v>9.2097631194563823E-2</v>
+        <v>0.11644615677723913</v>
       </c>
       <c r="AM11" t="s">
         <v>107</v>
@@ -1305,10 +1305,10 @@
         <v>5.3223687573688006E-2</v>
       </c>
       <c r="AK12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL12">
-        <v>0.11644615677723913</v>
+        <v>0.11181015686191494</v>
       </c>
       <c r="AM12" t="s">
         <v>107</v>
@@ -1477,10 +1477,10 @@
         <v>0.15832017615902494</v>
       </c>
       <c r="AK14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL14">
-        <v>0.12513812739473737</v>
+        <v>0.21508075954190392</v>
       </c>
       <c r="AM14" t="s">
         <v>107</v>
@@ -1563,10 +1563,10 @@
         <v>0.15567027243114007</v>
       </c>
       <c r="AK15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL15">
-        <v>0.11181015686191494</v>
+        <v>9.2097631194563823E-2</v>
       </c>
       <c r="AM15" t="s">
         <v>107</v>
@@ -1649,10 +1649,10 @@
         <v>0.15499617244472663</v>
       </c>
       <c r="AK16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL16">
-        <v>0.21508075954190392</v>
+        <v>0.12513812739473737</v>
       </c>
       <c r="AM16" t="s">
         <v>107</v>
